--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/28.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/28.xlsx
@@ -479,13 +479,13 @@
         <v>-21.7385252929639</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.014995866172095</v>
+        <v>-9.131883945943025</v>
       </c>
       <c r="F2" t="n">
-        <v>6.014129888747561</v>
+        <v>5.494574942776504</v>
       </c>
       <c r="G2" t="n">
-        <v>-15.86584445107062</v>
+        <v>-15.6026498870434</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-20.87889119260756</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.259075668050393</v>
+        <v>-9.46217656203409</v>
       </c>
       <c r="F3" t="n">
-        <v>5.941362869553248</v>
+        <v>5.418037340363774</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.39763751684481</v>
+        <v>-15.11360000669356</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-19.78214676757153</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.311968571530967</v>
+        <v>-9.584746701238329</v>
       </c>
       <c r="F4" t="n">
-        <v>6.05576341178425</v>
+        <v>5.54566110846492</v>
       </c>
       <c r="G4" t="n">
-        <v>-14.60796217864326</v>
+        <v>-14.42406769292838</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-18.57002595463468</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.25868608231902</v>
+        <v>-10.42586169730502</v>
       </c>
       <c r="F5" t="n">
-        <v>6.12902793848655</v>
+        <v>5.643067841607361</v>
       </c>
       <c r="G5" t="n">
-        <v>-13.60289227408964</v>
+        <v>-13.56928433269492</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-17.24148853359949</v>
       </c>
       <c r="E6" t="n">
-        <v>-10.86157353587766</v>
+        <v>-11.06705722897856</v>
       </c>
       <c r="F6" t="n">
-        <v>6.307921164515895</v>
+        <v>5.712273754428725</v>
       </c>
       <c r="G6" t="n">
-        <v>-12.86792966946366</v>
+        <v>-12.87029937627801</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-15.86274995242386</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.69753016462472</v>
+        <v>-11.87600443696313</v>
       </c>
       <c r="F7" t="n">
-        <v>6.62585464672437</v>
+        <v>5.992972727355332</v>
       </c>
       <c r="G7" t="n">
-        <v>-11.51147544894095</v>
+        <v>-11.67133246663842</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-14.46082401082739</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.50596677279846</v>
+        <v>-12.72108640079086</v>
       </c>
       <c r="F8" t="n">
-        <v>6.913413986340042</v>
+        <v>6.299175506217622</v>
       </c>
       <c r="G8" t="n">
-        <v>-10.76222914191465</v>
+        <v>-10.96932318826507</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-13.08174977747001</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.24632340619523</v>
+        <v>-13.43137001456018</v>
       </c>
       <c r="F9" t="n">
-        <v>6.970234580673133</v>
+        <v>6.333870108748195</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.549266560537252</v>
+        <v>-9.961896669199932</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-11.75850797886919</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.29636537101018</v>
+        <v>-14.50228111010485</v>
       </c>
       <c r="F10" t="n">
-        <v>7.133207566446939</v>
+        <v>6.584273492899048</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.891705650311559</v>
+        <v>-9.32709018131316</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-10.51014549258837</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.17999107440396</v>
+        <v>-15.4240839685851</v>
       </c>
       <c r="F11" t="n">
-        <v>7.363605911855634</v>
+        <v>6.830513524746232</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.0682652630812</v>
+        <v>-8.620158197071319</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-9.36800827330649</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.45027175762243</v>
+        <v>-16.59943236389821</v>
       </c>
       <c r="F12" t="n">
-        <v>7.293274060989882</v>
+        <v>6.769398655081055</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.63357462413021</v>
+        <v>-8.182456328466733</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-8.325113877870898</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.43197190160357</v>
+        <v>-17.48409235921649</v>
       </c>
       <c r="F13" t="n">
-        <v>7.209692799648303</v>
+        <v>6.682701425663145</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.400086495250867</v>
+        <v>-7.845905591617323</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-7.405415200211944</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.83058333727665</v>
+        <v>-18.84799610005614</v>
       </c>
       <c r="F14" t="n">
-        <v>7.194322436112116</v>
+        <v>6.742428511227099</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.473688238473172</v>
+        <v>-7.019820559212934</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-6.590397669774551</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.92266468651638</v>
+        <v>-19.8901303139547</v>
       </c>
       <c r="F15" t="n">
-        <v>7.20262295611377</v>
+        <v>6.763297641956811</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.014554270116681</v>
+        <v>-6.606339450865541</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-5.882595526984089</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.884556176298</v>
+        <v>-20.83578734821257</v>
       </c>
       <c r="F16" t="n">
-        <v>7.113228712310465</v>
+        <v>6.726141686491992</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.404452957692246</v>
+        <v>-5.997521184119595</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-5.25991146773629</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.97721358686277</v>
+        <v>-21.87189910280393</v>
       </c>
       <c r="F17" t="n">
-        <v>7.435587392879444</v>
+        <v>7.035879387121548</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.513970070963285</v>
+        <v>-5.953216831303195</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-4.708763800234515</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.84503688072659</v>
+        <v>-22.72130152656943</v>
       </c>
       <c r="F18" t="n">
-        <v>7.841605888607053</v>
+        <v>7.431397855970092</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.945934327569316</v>
+        <v>-5.357517052004658</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-4.21272882817245</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.47777478476436</v>
+        <v>-23.37750083729959</v>
       </c>
       <c r="F19" t="n">
-        <v>8.144483222547544</v>
+        <v>7.721182887068856</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.10895649920061</v>
+        <v>-4.599891671159654</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.754045593872799</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.3744404217885</v>
+        <v>-24.2141382657944</v>
       </c>
       <c r="F20" t="n">
-        <v>8.360401481013291</v>
+        <v>7.862684496182232</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.695789606121419</v>
+        <v>-4.126369261980106</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-3.329999797983843</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.48283159701515</v>
+        <v>-24.4888409640195</v>
       </c>
       <c r="F21" t="n">
-        <v>8.197088095365599</v>
+        <v>7.746634323793172</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.684687333311635</v>
+        <v>-4.141608702487875</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-2.927452741469653</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.16401102156732</v>
+        <v>-25.19738330151088</v>
       </c>
       <c r="F22" t="n">
-        <v>8.603682652418245</v>
+        <v>8.184336192397758</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.09811607244766</v>
+        <v>-4.492770449308652</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.557961725039033</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.27308299654173</v>
+        <v>-25.30475327711587</v>
       </c>
       <c r="F23" t="n">
-        <v>8.248802691590416</v>
+        <v>7.942783204967912</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.968476089708889</v>
+        <v>-4.264034826360855</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-2.222103002666511</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.691041672461</v>
+        <v>-25.73559477903139</v>
       </c>
       <c r="F24" t="n">
-        <v>8.229792667864231</v>
+        <v>7.942102405220142</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.864300635997275</v>
+        <v>-4.171773368235212</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-1.935882637267476</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.72852493549686</v>
+        <v>-25.86456705432524</v>
       </c>
       <c r="F25" t="n">
-        <v>8.372341661204944</v>
+        <v>8.106515544306538</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.735825868211417</v>
+        <v>-4.036961925873959</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-1.70774327861794</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.04576452565473</v>
+        <v>-26.17763019987659</v>
       </c>
       <c r="F26" t="n">
-        <v>8.272002252225956</v>
+        <v>8.061870791616252</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.561632778902251</v>
+        <v>-3.88807625795785</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-1.547849361302677</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.0166079672262</v>
+        <v>-26.12747358768994</v>
       </c>
       <c r="F27" t="n">
-        <v>8.179073086655384</v>
+        <v>7.975644885100644</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.695606313881635</v>
+        <v>-4.009206243849499</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-1.462979664348635</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.94198184102836</v>
+        <v>-26.04207249625336</v>
       </c>
       <c r="F28" t="n">
-        <v>8.048595196534743</v>
+        <v>7.794054644685904</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.913148017899755</v>
+        <v>-4.13140979857417</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-1.450722297840913</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.78839603639207</v>
+        <v>-25.99391900640149</v>
       </c>
       <c r="F29" t="n">
-        <v>7.985437927626256</v>
+        <v>7.686671576778067</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.733469253699906</v>
+        <v>-3.957805862892882</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-1.508819433927195</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.68333030608722</v>
+        <v>-25.92995001471682</v>
       </c>
       <c r="F30" t="n">
-        <v>8.072161341649849</v>
+        <v>7.740428572246194</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.869707757070908</v>
+        <v>-4.08180306310687</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-1.620720979901125</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.36742613081921</v>
+        <v>-25.58317418934802</v>
       </c>
       <c r="F31" t="n">
-        <v>7.914818046097985</v>
+        <v>7.602618992534185</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.273513653618265</v>
+        <v>-4.415211647274266</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-1.773196584815131</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.93155718461247</v>
+        <v>-25.16503222118897</v>
       </c>
       <c r="F32" t="n">
-        <v>8.070485526886108</v>
+        <v>7.698428464729937</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.1712365838187</v>
+        <v>-4.269036086046395</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-1.94335913225233</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.79233363619355</v>
+        <v>-25.02846641024692</v>
       </c>
       <c r="F33" t="n">
-        <v>8.099681362223157</v>
+        <v>7.689918467882815</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.302355996778587</v>
+        <v>-4.414949801217432</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-2.11302593083238</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.40626780999673</v>
+        <v>-24.61586248618993</v>
       </c>
       <c r="F34" t="n">
-        <v>8.216045749880418</v>
+        <v>7.757631858180222</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.330975770790601</v>
+        <v>-4.452956756366962</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-2.264059089301986</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.2277542607498</v>
+        <v>-24.40958016261569</v>
       </c>
       <c r="F35" t="n">
-        <v>8.111935757683012</v>
+        <v>7.67706182649224</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.480830269116997</v>
+        <v>-4.576967048883792</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-2.382917392703317</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.89544543002111</v>
+        <v>-24.05017026500463</v>
       </c>
       <c r="F36" t="n">
-        <v>8.249745337395021</v>
+        <v>7.764544594080653</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.396188531245238</v>
+        <v>-4.597103010654366</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-2.463096331405601</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.28476805627164</v>
+        <v>-23.4108600249403</v>
       </c>
       <c r="F37" t="n">
-        <v>8.211070674800563</v>
+        <v>7.750247799377489</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.499617723694874</v>
+        <v>-4.649734068078105</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-2.500465276046777</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.81725501409644</v>
+        <v>-22.99998428485841</v>
       </c>
       <c r="F38" t="n">
-        <v>8.208111814358332</v>
+        <v>7.682429670657347</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.500900769373363</v>
+        <v>-4.640098133186595</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-2.500984726382731</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.63706565008577</v>
+        <v>-22.81844641365504</v>
       </c>
       <c r="F39" t="n">
-        <v>8.359746865871204</v>
+        <v>7.821077157751226</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.748476216110403</v>
+        <v>-4.849823732408205</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-2.470666472677</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.93929827783314</v>
+        <v>-22.10252001736093</v>
       </c>
       <c r="F40" t="n">
-        <v>8.63832488573745</v>
+        <v>8.053989225305534</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.697953019444182</v>
+        <v>-4.816045591076551</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-2.423822028022323</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.25967683731913</v>
+        <v>-21.54521996229718</v>
       </c>
       <c r="F41" t="n">
-        <v>8.620126584787451</v>
+        <v>8.060352084486611</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.730762330365548</v>
+        <v>-4.826035018144789</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-2.371847284081957</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.552024776421</v>
+        <v>-20.77066623387782</v>
       </c>
       <c r="F42" t="n">
-        <v>8.597215054814431</v>
+        <v>8.006123766116183</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.054116025950498</v>
+        <v>-5.108920405645963</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-2.327807766575201</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.72645034382743</v>
+        <v>-20.11262090844699</v>
       </c>
       <c r="F43" t="n">
-        <v>8.714783934333131</v>
+        <v>8.116727540523085</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.213554089957039</v>
+        <v>-5.255842228135814</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-2.298650699076488</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.04904150249369</v>
+        <v>-19.40314901745385</v>
       </c>
       <c r="F44" t="n">
-        <v>8.455818184123789</v>
+        <v>7.857918897947844</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.007520520136795</v>
+        <v>-5.121737770128013</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-2.286796915108162</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.53920104523119</v>
+        <v>-18.83003346055729</v>
       </c>
       <c r="F45" t="n">
-        <v>8.500384382997025</v>
+        <v>7.855824129493167</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.154167404266969</v>
+        <v>-5.205672523646319</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-2.295630130883254</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.89113205456575</v>
+        <v>-18.13843256294311</v>
       </c>
       <c r="F46" t="n">
-        <v>8.561106483576951</v>
+        <v>7.998792076524817</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.283074218046604</v>
+        <v>-5.34607437932099</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-2.323624511550072</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.74693343106698</v>
+        <v>-17.91008970908057</v>
       </c>
       <c r="F47" t="n">
-        <v>8.435577483930482</v>
+        <v>7.888659625020217</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.582770122396555</v>
+        <v>-5.616037663917381</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-2.374367884114169</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.09484510342913</v>
+        <v>-17.33180269256153</v>
       </c>
       <c r="F48" t="n">
-        <v>8.359458835208686</v>
+        <v>7.799448673456695</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.68072673225835</v>
+        <v>-5.682415639324932</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-2.442488542615322</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.22826557833528</v>
+        <v>-16.50913475119883</v>
       </c>
       <c r="F49" t="n">
-        <v>8.294547197719409</v>
+        <v>7.749174230544467</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.865668602200572</v>
+        <v>-5.885791471668305</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-2.52986039297551</v>
       </c>
       <c r="E50" t="n">
-        <v>-15.68294498037171</v>
+        <v>-16.00603682989982</v>
       </c>
       <c r="F50" t="n">
-        <v>8.035555262904383</v>
+        <v>7.486961589230377</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.11103144975736</v>
+        <v>-6.120444815500561</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-2.631289555004996</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.96059026338231</v>
+        <v>-15.30621396610104</v>
       </c>
       <c r="F51" t="n">
-        <v>7.85325803813619</v>
+        <v>7.332498600303693</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.052155363878118</v>
+        <v>-6.04617218147945</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-2.748000075976276</v>
       </c>
       <c r="E52" t="n">
-        <v>-14.28337780659119</v>
+        <v>-14.64175341227776</v>
       </c>
       <c r="F52" t="n">
-        <v>7.716076888960584</v>
+        <v>7.207833692644778</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.196812217976349</v>
+        <v>-6.20758718321509</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-2.881063395184154</v>
       </c>
       <c r="E53" t="n">
-        <v>-13.79402680327599</v>
+        <v>-14.1241754040358</v>
       </c>
       <c r="F53" t="n">
-        <v>7.765303947645473</v>
+        <v>7.208959630689166</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.246130922781131</v>
+        <v>-6.326831877497531</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.032463240488054</v>
       </c>
       <c r="E54" t="n">
-        <v>-13.37482435858677</v>
+        <v>-13.71284143335445</v>
       </c>
       <c r="F54" t="n">
-        <v>7.550825842492317</v>
+        <v>7.037895601759173</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.467561040743244</v>
+        <v>-6.525743234571875</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.209887168569216</v>
       </c>
       <c r="E55" t="n">
-        <v>-12.78745128389557</v>
+        <v>-13.13095403355394</v>
       </c>
       <c r="F55" t="n">
-        <v>7.497618723743543</v>
+        <v>7.021949176897951</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.788505752605317</v>
+        <v>-6.754701426667981</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-3.413336148458786</v>
       </c>
       <c r="E56" t="n">
-        <v>-12.48782084105983</v>
+        <v>-12.81944887204075</v>
       </c>
       <c r="F56" t="n">
-        <v>7.56533211404095</v>
+        <v>7.09901047142435</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.728503728681686</v>
+        <v>-6.741308000860895</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-3.652449388976067</v>
       </c>
       <c r="E57" t="n">
-        <v>-12.02820245749819</v>
+        <v>-12.36014470374731</v>
       </c>
       <c r="F57" t="n">
-        <v>7.203408494284274</v>
+        <v>6.773588191990408</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.964099718318548</v>
+        <v>-7.028513848299839</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-3.922473453758999</v>
       </c>
       <c r="E58" t="n">
-        <v>-11.58344383766191</v>
+        <v>-11.91352697690751</v>
       </c>
       <c r="F58" t="n">
-        <v>7.346795395006858</v>
+        <v>6.825014757552707</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.743353583458083</v>
+        <v>-7.714406501875026</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.229187449606593</v>
       </c>
       <c r="E59" t="n">
-        <v>-11.57138582674468</v>
+        <v>-11.81707598187252</v>
       </c>
       <c r="F59" t="n">
-        <v>7.209588061225569</v>
+        <v>6.721585565103071</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.756040024911716</v>
+        <v>-7.859390663544302</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.565950583255302</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.37416337673692</v>
+        <v>-11.66491723824597</v>
       </c>
       <c r="F60" t="n">
-        <v>7.0549417800591</v>
+        <v>6.619832187417177</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.990640999532605</v>
+        <v>-8.070687339106918</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-4.931043370525725</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.40601694955084</v>
+        <v>-11.61442022618544</v>
       </c>
       <c r="F61" t="n">
-        <v>6.877488707342345</v>
+        <v>6.402604698667258</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.447313614954853</v>
+        <v>-8.51754072739787</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.318902220808161</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.52458084408551</v>
+        <v>-11.72773410728058</v>
       </c>
       <c r="F62" t="n">
-        <v>6.928522503819393</v>
+        <v>6.416299247439703</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.680710097714302</v>
+        <v>-8.669948224778404</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-5.720849190137169</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.14891030634503</v>
+        <v>-11.39060730910613</v>
       </c>
       <c r="F63" t="n">
-        <v>7.252897399025999</v>
+        <v>6.660130295564009</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.746302534951351</v>
+        <v>-8.803843205940737</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-6.134267603781008</v>
       </c>
       <c r="E64" t="n">
-        <v>-10.87329114692101</v>
+        <v>-11.19195779808862</v>
       </c>
       <c r="F64" t="n">
-        <v>7.105504253633846</v>
+        <v>6.527138683297756</v>
       </c>
       <c r="G64" t="n">
-        <v>-8.977002003325405</v>
+        <v>-9.028572584218963</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-6.545295702779701</v>
       </c>
       <c r="E65" t="n">
-        <v>-10.89380678547399</v>
+        <v>-11.22733320036697</v>
       </c>
       <c r="F65" t="n">
-        <v>7.083116415774495</v>
+        <v>6.526693545001137</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.038980964978137</v>
+        <v>-9.11698490530914</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-6.954561160056853</v>
       </c>
       <c r="E66" t="n">
-        <v>-10.61575245772142</v>
+        <v>-10.99773348543162</v>
       </c>
       <c r="F66" t="n">
-        <v>6.905637158452056</v>
+        <v>6.41559226308625</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.442407184743084</v>
+        <v>-9.466627945000276</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-7.345470627255215</v>
       </c>
       <c r="E67" t="n">
-        <v>-10.84211837385486</v>
+        <v>-11.24364620970776</v>
       </c>
       <c r="F67" t="n">
-        <v>6.670656507048757</v>
+        <v>6.15497688271885</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.489696582607397</v>
+        <v>-9.504556346332757</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-7.720153206745288</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.00223723760917</v>
+        <v>-11.29085705375502</v>
       </c>
       <c r="F68" t="n">
-        <v>6.628525476504082</v>
+        <v>6.102581486746263</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.300133129762047</v>
+        <v>-9.215491391890287</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-8.067239147235531</v>
       </c>
       <c r="E69" t="n">
-        <v>-10.81205844653026</v>
+        <v>-11.1343123886765</v>
       </c>
       <c r="F69" t="n">
-        <v>6.598963056687465</v>
+        <v>6.111746098735471</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.292042086605859</v>
+        <v>-9.25101080949989</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-8.388107694282013</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.08221811566927</v>
+        <v>-11.43933686028303</v>
       </c>
       <c r="F70" t="n">
-        <v>6.422504998986681</v>
+        <v>5.89708470134253</v>
       </c>
       <c r="G70" t="n">
-        <v>-9.428123482342761</v>
+        <v>-9.359925676840209</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-8.680403630235991</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.03169491900305</v>
+        <v>-11.31350673767121</v>
       </c>
       <c r="F71" t="n">
-        <v>6.048065137713316</v>
+        <v>5.606880716552831</v>
       </c>
       <c r="G71" t="n">
-        <v>-9.38261463766492</v>
+        <v>-9.286595688623702</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-8.943973729986141</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.06645498304784</v>
+        <v>-11.42945217163753</v>
       </c>
       <c r="F72" t="n">
-        <v>6.309649348491003</v>
+        <v>5.824631897416419</v>
       </c>
       <c r="G72" t="n">
-        <v>-9.679142204727174</v>
+        <v>-9.613523582884444</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-9.184807448998358</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.49768925404861</v>
+        <v>-11.79555223600072</v>
       </c>
       <c r="F73" t="n">
-        <v>6.445495082776752</v>
+        <v>5.941467607975982</v>
       </c>
       <c r="G73" t="n">
-        <v>-9.38117448435233</v>
+        <v>-9.321473583394059</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-9.398255751851162</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.64372079994522</v>
+        <v>-11.98008824455485</v>
       </c>
       <c r="F74" t="n">
-        <v>6.377153261942942</v>
+        <v>5.904311652511163</v>
       </c>
       <c r="G74" t="n">
-        <v>-9.468133559827075</v>
+        <v>-9.372729949019417</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-9.593850555399296</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.17008374339398</v>
+        <v>-12.4824791815004</v>
       </c>
       <c r="F75" t="n">
-        <v>6.344684350895461</v>
+        <v>5.817326392430735</v>
       </c>
       <c r="G75" t="n">
-        <v>-9.642994356581168</v>
+        <v>-9.477285079513441</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-9.760597888294384</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.05549990892319</v>
+        <v>-12.4331866613013</v>
       </c>
       <c r="F76" t="n">
-        <v>6.239029466962732</v>
+        <v>5.688183917199949</v>
       </c>
       <c r="G76" t="n">
-        <v>-9.697523797916958</v>
+        <v>-9.470961497240888</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-9.907554530330442</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.75732589505676</v>
+        <v>-13.028624594543</v>
       </c>
       <c r="F77" t="n">
-        <v>6.196479482727122</v>
+        <v>5.720155320739444</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.433517511113552</v>
+        <v>-9.204860441982806</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-10.02200701217713</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.45257954516378</v>
+        <v>-13.72645742830985</v>
       </c>
       <c r="F78" t="n">
-        <v>6.237170359959207</v>
+        <v>5.712561785091244</v>
       </c>
       <c r="G78" t="n">
-        <v>-8.808713542597859</v>
+        <v>-8.667997471654987</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-10.10673496203296</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.69813877726319</v>
+        <v>-14.03643079039055</v>
       </c>
       <c r="F79" t="n">
-        <v>6.423840413876537</v>
+        <v>5.900200669418862</v>
       </c>
       <c r="G79" t="n">
-        <v>-9.028166722830871</v>
+        <v>-8.806500943417607</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-10.15149869493762</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.29544890981126</v>
+        <v>-14.60715045586707</v>
       </c>
       <c r="F80" t="n">
-        <v>6.420881553434307</v>
+        <v>5.949244435863967</v>
       </c>
       <c r="G80" t="n">
-        <v>-8.435988772996758</v>
+        <v>-8.250706503180652</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-10.15159934600446</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.86826334374246</v>
+        <v>-15.14057015054752</v>
       </c>
       <c r="F81" t="n">
-        <v>6.524755884180562</v>
+        <v>5.960451447096484</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.275333124825938</v>
+        <v>-8.021578111147603</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-10.10089054185479</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.71859532100973</v>
+        <v>-16.01775444094317</v>
       </c>
       <c r="F82" t="n">
-        <v>6.566546514851352</v>
+        <v>6.010280751712094</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.17317388575195</v>
+        <v>-7.962623471451312</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-9.989423387521208</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.71278552190188</v>
+        <v>-16.96532295141593</v>
       </c>
       <c r="F83" t="n">
-        <v>6.718521966238107</v>
+        <v>6.138899534829211</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.039003966229942</v>
+        <v>-7.796521425298333</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-9.817663058996207</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.5922216883863</v>
+        <v>-17.86543186408744</v>
       </c>
       <c r="F84" t="n">
-        <v>6.671049276134009</v>
+        <v>6.123791017349859</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.714157748121034</v>
+        <v>-7.557927298310717</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-9.574249600810854</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.44937475543411</v>
+        <v>-18.70350944589485</v>
       </c>
       <c r="F85" t="n">
-        <v>6.853529793141987</v>
+        <v>6.315331407924312</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.47459479072313</v>
+        <v>-7.340765271075006</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-9.267801424289637</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.73424026401826</v>
+        <v>-19.94378257100009</v>
       </c>
       <c r="F86" t="n">
-        <v>6.732687837912855</v>
+        <v>6.276813852963953</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.51228753060446</v>
+        <v>-7.309592498008857</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-8.890711294944442</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.7661101124889</v>
+        <v>-20.98959572199717</v>
       </c>
       <c r="F87" t="n">
-        <v>6.806711718179974</v>
+        <v>6.206010679195899</v>
       </c>
       <c r="G87" t="n">
-        <v>-6.970881531190561</v>
+        <v>-6.846111885108912</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-8.456825634556134</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.08243642480172</v>
+        <v>-22.40359061350927</v>
       </c>
       <c r="F88" t="n">
-        <v>7.129541721651256</v>
+        <v>6.501791984996174</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.045690949628185</v>
+        <v>-6.930373946198261</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-7.967000055433163</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.7544020515072</v>
+        <v>-24.08499579056362</v>
       </c>
       <c r="F89" t="n">
-        <v>6.954314340417594</v>
+        <v>6.349554687552583</v>
       </c>
       <c r="G89" t="n">
-        <v>-6.738205125087406</v>
+        <v>-6.729394005274925</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-7.436111501049218</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.9882337636143</v>
+        <v>-25.43502169039104</v>
       </c>
       <c r="F90" t="n">
-        <v>7.269472254423624</v>
+        <v>6.636799811900054</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.120487275762965</v>
+        <v>-6.998087336495669</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-6.873116399111538</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.71944206067858</v>
+        <v>-27.15351736139601</v>
       </c>
       <c r="F91" t="n">
-        <v>7.354572222894843</v>
+        <v>6.782674250162565</v>
       </c>
       <c r="G91" t="n">
-        <v>-6.687655743815502</v>
+        <v>-6.640667468916547</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-6.290865589203094</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.71422459855249</v>
+        <v>-29.21120841442441</v>
       </c>
       <c r="F92" t="n">
-        <v>7.060152516590107</v>
+        <v>6.536565141343798</v>
       </c>
       <c r="G92" t="n">
-        <v>-6.922911333578477</v>
+        <v>-6.802422870526073</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-5.701789826413841</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.55720188497659</v>
+        <v>-31.04020312141354</v>
       </c>
       <c r="F93" t="n">
-        <v>7.102702500825718</v>
+        <v>6.527138683297756</v>
       </c>
       <c r="G93" t="n">
-        <v>-6.200739908828868</v>
+        <v>-6.225379622776996</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-5.110685654586875</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.51988209628258</v>
+        <v>-32.99734528861749</v>
       </c>
       <c r="F94" t="n">
-        <v>7.070783466497589</v>
+        <v>6.578486695043005</v>
       </c>
       <c r="G94" t="n">
-        <v>-6.563435974453204</v>
+        <v>-6.505869118858135</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-4.530099761090268</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.86510630432097</v>
+        <v>-35.29521463727735</v>
       </c>
       <c r="F95" t="n">
-        <v>7.03566991027608</v>
+        <v>6.479325593319772</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.938213052246576</v>
+        <v>-5.970564132568481</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.951797573143579</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.29134568234397</v>
+        <v>-37.74131503871125</v>
       </c>
       <c r="F96" t="n">
-        <v>6.776363760192853</v>
+        <v>6.238217744186545</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.863259618477694</v>
+        <v>-5.90008826637147</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-3.386551075003893</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.25572789301938</v>
+        <v>-39.70741234105893</v>
       </c>
       <c r="F97" t="n">
-        <v>6.723104272232711</v>
+        <v>6.111039114382018</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.466418827042135</v>
+        <v>-5.611507727134144</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-2.816555851332672</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.66778830706479</v>
+        <v>-42.1498338053943</v>
       </c>
       <c r="F98" t="n">
-        <v>6.643267409503866</v>
+        <v>6.054899319796696</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.637836348148855</v>
+        <v>-5.734143327852592</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-2.254902617780492</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.06845841763788</v>
+        <v>-44.47232977569945</v>
       </c>
       <c r="F99" t="n">
-        <v>6.47217719596819</v>
+        <v>5.922693245700946</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.38946227093847</v>
+        <v>-5.496295462126954</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-1.676682746893043</v>
       </c>
       <c r="E100" t="n">
-        <v>-46.18380797238125</v>
+        <v>-46.59235328255731</v>
       </c>
       <c r="F100" t="n">
-        <v>6.225230179767553</v>
+        <v>5.751419739925486</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.434787823376525</v>
+        <v>-5.517701377273177</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-1.11526035200041</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.58687397437438</v>
+        <v>-48.96391920391326</v>
       </c>
       <c r="F101" t="n">
-        <v>6.196034344430504</v>
+        <v>5.618401943053549</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.448102695366561</v>
+        <v>-5.593872395206339</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.5254683642446294</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.0781035437037</v>
+        <v>-51.398616209572</v>
       </c>
       <c r="F102" t="n">
-        <v>5.46344144661888</v>
+        <v>5.015894166277316</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.154573265655062</v>
+        <v>-5.350643593012752</v>
       </c>
     </row>
   </sheetData>
